--- a/2023/CB-D-week-loop.xlsx
+++ b/2023/CB-D-week-loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7542D2-6261-4518-81A5-C12B2E7291DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14F09A-6D58-4EE3-BF42-099C7D87788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="810" windowWidth="21600" windowHeight="14055" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -24,19 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>总计</t>
   </si>
@@ -174,16 +167,7 @@
     <t>海澜转债</t>
   </si>
   <si>
-    <t>国城转债</t>
-  </si>
-  <si>
-    <t>文科转债</t>
-  </si>
-  <si>
     <t>敖东转债</t>
-  </si>
-  <si>
-    <t>华安转债</t>
   </si>
   <si>
     <t>蓝帆转债</t>
@@ -191,6 +175,10 @@
   </si>
   <si>
     <t>青农转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,6 +957,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1033,8 +1024,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2690,11 +2681,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB5B58-1401-4091-9A89-9497DD2510F5}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2720,45 +2711,45 @@
     <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100"/>
-      <c r="B1" s="102" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="101"/>
+      <c r="B1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2793,29 +2784,35 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="97"/>
+      <c r="Q2" s="98"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="99"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="100"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="41">
         <v>1</v>
       </c>
       <c r="C3" s="34">
-        <v>128100</v>
+        <v>127015</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="E3" s="51">
+        <v>44980</v>
+      </c>
       <c r="F3" s="52">
         <v>10</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
+      <c r="G3" s="53">
+        <v>108.2</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.5</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
@@ -2823,9 +2820,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
-      <c r="N3" s="55" t="e">
+      <c r="N3" s="55">
         <f>(K3-G3)/G3</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="52">
         <f>((K3-G3)*L3)-M3</f>
@@ -2833,386 +2830,258 @@
       </c>
       <c r="P3" s="56">
         <f>J3-E3</f>
-        <v>0</v>
+        <v>-44980</v>
       </c>
       <c r="Q3" s="57"/>
       <c r="S3" s="58"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="24">
-        <v>110067</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>41</v>
+        <v>128129</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="51">
-        <v>44622</v>
+        <v>44902</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
       </c>
       <c r="G4" s="59">
-        <v>112.11</v>
+        <v>100.53100000000001</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="54"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
       <c r="N4" s="55">
-        <f t="shared" ref="N4:N10" si="0">(K4-G4)/G4</f>
+        <f t="shared" ref="N4:N7" si="0">(K4-G4)/G4</f>
         <v>-1</v>
       </c>
       <c r="O4" s="52">
-        <f t="shared" ref="O4:O10" si="1">((K4-G4)*L4)-M4</f>
+        <f t="shared" ref="O4:O7" si="1">((K4-G4)*L4)-M4</f>
         <v>0</v>
       </c>
       <c r="P4" s="56">
-        <f t="shared" ref="P4:P10" si="2">J4-E4</f>
-        <v>-44622</v>
+        <f t="shared" ref="P4:P7" si="2">J4-E4</f>
+        <v>-44902</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="58"/>
-      <c r="W4" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41">
-        <v>3</v>
-      </c>
-      <c r="C5" s="24">
-        <v>128129</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="51">
-        <v>44902</v>
+        <v>44622</v>
       </c>
       <c r="F5" s="6">
         <v>10</v>
       </c>
       <c r="G5" s="59">
-        <v>100.53100000000001</v>
+        <v>112.715</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="52"/>
+        <v>33</v>
+      </c>
+      <c r="J5" s="54">
+        <v>44790</v>
+      </c>
+      <c r="K5" s="6">
+        <v>116.839</v>
+      </c>
+      <c r="L5" s="6">
+        <v>10</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0.2</v>
+      </c>
       <c r="N5" s="55">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3.6587854322849625E-2</v>
       </c>
       <c r="O5" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.039999999999949</v>
       </c>
       <c r="P5" s="56">
         <f t="shared" si="2"/>
-        <v>-44902</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="58"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
       <c r="C6" s="34">
-        <v>113044</v>
+        <v>110045</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="6">
+        <v>37</v>
+      </c>
+      <c r="E6" s="51">
+        <v>44633</v>
+      </c>
+      <c r="F6" s="16">
         <v>10</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="55" t="e">
+      <c r="G6" s="22">
+        <v>114.11</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="113">
+        <v>44980</v>
+      </c>
+      <c r="K6" s="12">
+        <v>116.619</v>
+      </c>
+      <c r="L6" s="28">
+        <v>10</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="55">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.198755586714574E-2</v>
       </c>
       <c r="O6" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.590000000000003</v>
       </c>
       <c r="P6" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="Q6" s="7"/>
-      <c r="S6" s="58"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41">
-        <v>5</v>
-      </c>
-      <c r="C7" s="34">
-        <v>127019</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="6">
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="88">
+        <v>44791</v>
+      </c>
+      <c r="F7" s="89">
         <v>10</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="55" t="e">
+      <c r="G7" s="90">
+        <v>104.003</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="95">
+        <v>44895</v>
+      </c>
+      <c r="K7" s="92">
+        <v>110.002</v>
+      </c>
+      <c r="L7" s="6">
+        <v>10</v>
+      </c>
+      <c r="M7" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="55">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.768102843187211E-2</v>
       </c>
       <c r="O7" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.789999999999949</v>
       </c>
       <c r="P7" s="56">
         <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="Q7" s="93"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="S7" s="58"/>
-      <c r="W7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41">
-        <v>6</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="51">
-        <v>44622</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="59">
-        <v>112.715</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="54">
-        <v>44790</v>
-      </c>
-      <c r="K8" s="6">
-        <v>116.839</v>
-      </c>
-      <c r="L8" s="6">
-        <v>10</v>
-      </c>
-      <c r="M8" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="N8" s="55">
-        <f t="shared" si="0"/>
-        <v>3.6587854322849625E-2</v>
-      </c>
-      <c r="O8" s="52">
-        <f t="shared" si="1"/>
-        <v>41.039999999999949</v>
-      </c>
-      <c r="P8" s="56">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="58"/>
-    </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="34">
-        <v>110045</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="51">
-        <v>44633</v>
-      </c>
-      <c r="F9" s="16">
-        <v>10</v>
-      </c>
-      <c r="G9" s="22">
-        <v>114.11</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="55">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O9" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="56">
-        <f t="shared" si="2"/>
-        <v>-44633</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="S9" s="27"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="88">
-        <v>44791</v>
-      </c>
-      <c r="F10" s="89">
-        <v>10</v>
-      </c>
-      <c r="G10" s="90">
-        <v>104.003</v>
-      </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="95">
-        <v>44895</v>
-      </c>
-      <c r="K10" s="92">
-        <v>110.002</v>
-      </c>
-      <c r="L10" s="6">
-        <v>10</v>
-      </c>
-      <c r="M10" s="91">
-        <v>0.2</v>
-      </c>
-      <c r="N10" s="55">
-        <f t="shared" si="0"/>
-        <v>5.768102843187211E-2</v>
-      </c>
-      <c r="O10" s="52">
-        <f t="shared" si="1"/>
-        <v>59.789999999999949</v>
-      </c>
-      <c r="P10" s="56">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="Q10" s="93"/>
-      <c r="S10" s="27"/>
-    </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="17">
-        <f>SUM(H3:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="26">
-        <f>SUM(M3:M9)</f>
-        <v>0.2</v>
-      </c>
-      <c r="N11" s="44" t="e">
-        <f>(O11)/#REF!</f>
+      <c r="F8" s="17"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="17">
+        <f>SUM(H3:H5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="26">
+        <f>SUM(M3:M7)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N8" s="44" t="e">
+        <f>(O8)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O11" s="46">
-        <f>SUM(O3:O10)</f>
-        <v>100.8299999999999</v>
-      </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="10"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="37">
-        <v>128127</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="37">
-        <v>127006</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="37">
-        <v>110067</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N20" s="48" t="s">
+      <c r="O8" s="46">
+        <f>SUM(O3:O7)</f>
+        <v>125.4199999999999</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C30" s="31"/>
+    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3226,7 +3095,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O7 N8:N11 O8:O10">
+  <conditionalFormatting sqref="N5:N8 O5:O7 N3:O4">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3235,21 +3104,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8" xr:uid="{DD213AD5-4445-4C57-A56C-6FDBEACA4701}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I5" xr:uid="{DD213AD5-4445-4C57-A56C-6FDBEACA4701}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/127019" xr:uid="{7E8BE804-36C4-4E54-8242-621DFBF92AC2}"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/110045" xr:uid="{DF761325-DA3D-45AC-8493-4002115256D5}"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{874B1D63-0AC4-4E0C-A9BD-60F88D991EFC}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{325BD4D0-E431-4A23-8AEC-62E1210E0396}"/>
-    <hyperlink ref="C13" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/128127" xr:uid="{5CA675ED-E190-426F-8FE3-3D3D0BA871C1}"/>
-    <hyperlink ref="C14" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/127006" xr:uid="{4FBA5DA3-7B87-4EA2-98FF-9ABF54BADDE9}"/>
-    <hyperlink ref="C15" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/110067" xr:uid="{2369B92B-B371-423B-A381-22AC0AD3CBD6}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/110045" xr:uid="{DF761325-DA3D-45AC-8493-4002115256D5}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{325BD4D0-E431-4A23-8AEC-62E1210E0396}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3259,7 +3123,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3285,41 +3149,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3354,7 +3218,7 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="97"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
@@ -3746,7 +3610,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3773,44 +3637,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="99" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3845,11 +3709,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="97"/>
+      <c r="Q2" s="98"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="99"/>
+      <c r="S2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/2023/CB-D-week-loop.xlsx
+++ b/2023/CB-D-week-loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14F09A-6D58-4EE3-BF42-099C7D87788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CCFED2-5727-4651-AA0D-EFB6DA588B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -960,6 +960,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1023,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2518,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2683,9 +2683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB5B58-1401-4091-9A89-9497DD2510F5}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,44 +2712,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101"/>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="99" t="s">
+      <c r="S1" s="100" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2784,11 +2784,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="98"/>
+      <c r="Q2" s="99"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="100"/>
+      <c r="S2" s="101"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -2816,21 +2816,29 @@
       <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="54">
+        <v>45020</v>
+      </c>
+      <c r="K3" s="6">
+        <v>111.6</v>
+      </c>
+      <c r="L3" s="52">
+        <v>10</v>
+      </c>
+      <c r="M3" s="52">
+        <v>0.4</v>
+      </c>
       <c r="N3" s="55">
         <f>(K3-G3)/G3</f>
-        <v>-1</v>
+        <v>3.1423290203327091E-2</v>
       </c>
       <c r="O3" s="52">
         <f>((K3-G3)*L3)-M3</f>
-        <v>0</v>
+        <v>33.599999999999916</v>
       </c>
       <c r="P3" s="56">
         <f>J3-E3</f>
-        <v>-44980</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="57"/>
       <c r="S3" s="58"/>
@@ -2947,7 +2955,7 @@
       <c r="I6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="97">
         <v>44980</v>
       </c>
       <c r="K6" s="12">
@@ -3039,7 +3047,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="26">
         <f>SUM(M3:M7)</f>
-        <v>0.89999999999999991</v>
+        <v>1.3</v>
       </c>
       <c r="N8" s="44" t="e">
         <f>(O8)/#REF!</f>
@@ -3047,7 +3055,7 @@
       </c>
       <c r="O8" s="46">
         <f>SUM(O3:O7)</f>
-        <v>125.4199999999999</v>
+        <v>159.01999999999981</v>
       </c>
       <c r="P8" s="47"/>
       <c r="Q8" s="10"/>
@@ -3095,7 +3103,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N8 O5:O7 N3:O4">
+  <conditionalFormatting sqref="N5:N8 N3:O4 O5:O7">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3123,7 +3131,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3149,41 +3157,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101"/>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="98" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3218,7 +3226,7 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="98"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
@@ -3580,7 +3588,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O4 N5:N13 O5:O7">
+  <conditionalFormatting sqref="N5:N13 N3:O4 O5:O7">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3637,44 +3645,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101"/>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="99" t="s">
+      <c r="S1" s="100" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3709,11 +3717,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="98"/>
+      <c r="Q2" s="99"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="100"/>
+      <c r="S2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -4105,7 +4113,7 @@
     <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O8 N9:N10">
+  <conditionalFormatting sqref="N9:N10 N3:O8">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/2023/CB-D-week-loop.xlsx
+++ b/2023/CB-D-week-loop.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CCFED2-5727-4651-AA0D-EFB6DA588B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B864FF-2E68-486C-8B38-BE5FD008C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="4185" yWindow="2160" windowWidth="21600" windowHeight="11580" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
-    <sheet name="3期 " sheetId="8" r:id="rId2"/>
-    <sheet name="2期" sheetId="7" r:id="rId3"/>
+    <sheet name="2期" sheetId="7" r:id="rId2"/>
+    <sheet name="3期 " sheetId="8" r:id="rId3"/>
     <sheet name="1期" sheetId="2" r:id="rId4"/>
     <sheet name="方案" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>总计</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>希望转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道氏转02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘佳转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>永22转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,10 +901,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -963,19 +971,27 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1024,6 +1040,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2518,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2680,12 +2704,551 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931A806-A1A8-411D-B836-CCA3F8001F21}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="30"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="18"/>
+    <col min="7" max="7" width="8.75" style="24"/>
+    <col min="8" max="8" width="8.75" style="18"/>
+    <col min="9" max="9" width="5.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="48" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104"/>
+      <c r="B1" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="103"/>
+    </row>
+    <row r="3" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62">
+        <v>1</v>
+      </c>
+      <c r="C3" s="63">
+        <v>113044</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="65">
+        <v>44606</v>
+      </c>
+      <c r="F3" s="66">
+        <v>10</v>
+      </c>
+      <c r="G3" s="67">
+        <v>114.67</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="72">
+        <v>45040</v>
+      </c>
+      <c r="K3" s="66">
+        <v>115.111</v>
+      </c>
+      <c r="L3" s="66">
+        <v>10</v>
+      </c>
+      <c r="M3" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="69">
+        <f t="shared" ref="N3:N7" si="0">(K3-G3)/G3</f>
+        <v>3.8458184355106176E-3</v>
+      </c>
+      <c r="O3" s="68">
+        <f t="shared" ref="O3:O7" si="1">((K3-G3)*L3)-M3</f>
+        <v>4.2100000000000248</v>
+      </c>
+      <c r="P3" s="83">
+        <f>J3-E3</f>
+        <v>434</v>
+      </c>
+      <c r="Q3" s="70"/>
+    </row>
+    <row r="4" spans="1:17" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62">
+        <v>2</v>
+      </c>
+      <c r="C4" s="64">
+        <v>110068</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="65">
+        <v>44606</v>
+      </c>
+      <c r="F4" s="66">
+        <v>10</v>
+      </c>
+      <c r="G4" s="67">
+        <v>113.11</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="72">
+        <v>44620</v>
+      </c>
+      <c r="K4" s="66">
+        <v>119.16</v>
+      </c>
+      <c r="L4" s="66">
+        <v>10</v>
+      </c>
+      <c r="M4" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="69">
+        <f t="shared" si="0"/>
+        <v>5.3487755282468366E-2</v>
+      </c>
+      <c r="O4" s="68">
+        <f t="shared" si="1"/>
+        <v>60.299999999999969</v>
+      </c>
+      <c r="P4" s="83">
+        <f t="shared" ref="P4:P9" si="2">J4-E4</f>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="70"/>
+    </row>
+    <row r="5" spans="1:17" s="82" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="62">
+        <v>3</v>
+      </c>
+      <c r="C5" s="75">
+        <v>128100</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="77">
+        <v>44606</v>
+      </c>
+      <c r="F5" s="78">
+        <v>10</v>
+      </c>
+      <c r="G5" s="79">
+        <v>104.46</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="84">
+        <v>44622</v>
+      </c>
+      <c r="K5" s="78">
+        <v>116.8</v>
+      </c>
+      <c r="L5" s="78">
+        <v>10</v>
+      </c>
+      <c r="M5" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="69">
+        <f t="shared" si="0"/>
+        <v>0.11813134214053229</v>
+      </c>
+      <c r="O5" s="68">
+        <f t="shared" si="1"/>
+        <v>123.20000000000003</v>
+      </c>
+      <c r="P5" s="83">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="41">
+        <v>4</v>
+      </c>
+      <c r="C6" s="97">
+        <v>127034</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="51">
+        <v>44606</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="59">
+        <v>110.69</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O6" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="99">
+        <f t="shared" si="2"/>
+        <v>-44606</v>
+      </c>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="41">
+        <v>5</v>
+      </c>
+      <c r="C7" s="97">
+        <v>123190</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="51">
+        <v>45056</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="59">
+        <v>110.634</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O7" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="99">
+        <f t="shared" si="2"/>
+        <v>-45056</v>
+      </c>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="62">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37">
+        <v>127060</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="50">
+        <v>45057</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="22">
+        <v>113.571</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="83">
+        <f t="shared" si="2"/>
+        <v>-45057</v>
+      </c>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="62">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37">
+        <v>113653</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="50">
+        <v>45097</v>
+      </c>
+      <c r="F9" s="16">
+        <v>10</v>
+      </c>
+      <c r="G9" s="22">
+        <v>109.751</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="83">
+        <f t="shared" si="2"/>
+        <v>-45097</v>
+      </c>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="62">
+        <v>8</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17">
+        <f>SUM(H3:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="26">
+        <f>SUM(M3:M12)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="N13" s="44" t="e">
+        <f>(O13)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="46">
+        <f>SUM(O3:O12)</f>
+        <v>187.71000000000004</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C27" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N3:O4 O5:O7 N5:N13">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I10" xr:uid="{300A2D70-BCD0-40E1-983F-866A4D05695D}">
+      <formula1>"清,买,中"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{13CFC3F6-648E-41A3-8DC7-15CD8EBA3F80}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{F2BB8519-51ED-481A-A121-A6A37192EFB5}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{AD026F30-85D8-49F1-949E-5A710E6508BA}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{584A935A-52C5-4D6B-AB1F-72CF0318A1B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB5B58-1401-4091-9A89-9497DD2510F5}">
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,44 +3275,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102"/>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2784,11 +3347,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="101"/>
+      <c r="S2" s="117"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -2851,7 +3414,7 @@
       <c r="C4" s="24">
         <v>128129</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="95" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="51">
@@ -2867,21 +3430,29 @@
       <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="54">
+        <v>45055</v>
+      </c>
+      <c r="K4" s="1">
+        <v>102.624</v>
+      </c>
+      <c r="L4" s="6">
+        <v>10</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0.2</v>
+      </c>
       <c r="N4" s="55">
         <f t="shared" ref="N4:N7" si="0">(K4-G4)/G4</f>
-        <v>-1</v>
+        <v>2.081944872725815E-2</v>
       </c>
       <c r="O4" s="52">
         <f t="shared" ref="O4:O7" si="1">((K4-G4)*L4)-M4</f>
-        <v>0</v>
+        <v>20.729999999999894</v>
       </c>
       <c r="P4" s="56">
         <f t="shared" ref="P4:P7" si="2">J4-E4</f>
-        <v>-44902</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="58"/>
@@ -2955,7 +3526,7 @@
       <c r="I6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="96">
         <v>44980</v>
       </c>
       <c r="K6" s="12">
@@ -2983,34 +3554,34 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="94" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="87">
         <v>44791</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="88">
         <v>10</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="89">
         <v>104.003</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="94">
         <v>44895</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="91">
         <v>110.002</v>
       </c>
       <c r="L7" s="6">
         <v>10</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="90">
         <v>0.2</v>
       </c>
       <c r="N7" s="55">
@@ -3025,7 +3596,7 @@
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="Q7" s="93"/>
+      <c r="Q7" s="92"/>
       <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3047,7 +3618,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="26">
         <f>SUM(M3:M7)</f>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N8" s="44" t="e">
         <f>(O8)/#REF!</f>
@@ -3055,7 +3626,7 @@
       </c>
       <c r="O8" s="46">
         <f>SUM(O3:O7)</f>
-        <v>159.01999999999981</v>
+        <v>179.74999999999972</v>
       </c>
       <c r="P8" s="47"/>
       <c r="Q8" s="10"/>
@@ -3103,11 +3674,11 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N8 N3:O4 O5:O7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N3:O4 O5:O7 N5:N8">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3125,500 +3696,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931A806-A1A8-411D-B836-CCA3F8001F21}">
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="8" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="30"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="18"/>
-    <col min="7" max="7" width="8.75" style="24"/>
-    <col min="8" max="8" width="8.75" style="18"/>
-    <col min="9" max="9" width="5.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="48" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102"/>
-      <c r="B1" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="99"/>
-    </row>
-    <row r="3" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62">
-        <v>1</v>
-      </c>
-      <c r="C3" s="63">
-        <v>113044</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="65">
-        <v>44606</v>
-      </c>
-      <c r="F3" s="66">
-        <v>10</v>
-      </c>
-      <c r="G3" s="67">
-        <v>114.67</v>
-      </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="69">
-        <f t="shared" ref="N3:N6" si="0">(K3-G3)/G3</f>
-        <v>-1</v>
-      </c>
-      <c r="O3" s="68">
-        <f t="shared" ref="O3:O6" si="1">((K3-G3)*L3)-M3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="84">
-        <f>J3-E3</f>
-        <v>-44606</v>
-      </c>
-      <c r="Q3" s="70"/>
-    </row>
-    <row r="4" spans="1:17" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62">
-        <v>3</v>
-      </c>
-      <c r="C4" s="64">
-        <v>110068</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="65">
-        <v>44606</v>
-      </c>
-      <c r="F4" s="66">
-        <v>10</v>
-      </c>
-      <c r="G4" s="67">
-        <v>113.11</v>
-      </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="72">
-        <v>44620</v>
-      </c>
-      <c r="K4" s="66">
-        <v>119.16</v>
-      </c>
-      <c r="L4" s="66">
-        <v>10</v>
-      </c>
-      <c r="M4" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="N4" s="69">
-        <f t="shared" si="0"/>
-        <v>5.3487755282468366E-2</v>
-      </c>
-      <c r="O4" s="68">
-        <f t="shared" si="1"/>
-        <v>60.299999999999969</v>
-      </c>
-      <c r="P4" s="84">
-        <f t="shared" ref="P4:P9" si="2">J4-E4</f>
-        <v>14</v>
-      </c>
-      <c r="Q4" s="70"/>
-    </row>
-    <row r="5" spans="1:17" s="83" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75">
-        <v>5</v>
-      </c>
-      <c r="C5" s="76">
-        <v>128100</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="78">
-        <v>44606</v>
-      </c>
-      <c r="F5" s="79">
-        <v>10</v>
-      </c>
-      <c r="G5" s="80">
-        <v>104.46</v>
-      </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="85">
-        <v>44622</v>
-      </c>
-      <c r="K5" s="79">
-        <v>116.8</v>
-      </c>
-      <c r="L5" s="79">
-        <v>10</v>
-      </c>
-      <c r="M5" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="N5" s="69">
-        <f t="shared" si="0"/>
-        <v>0.11813134214053229</v>
-      </c>
-      <c r="O5" s="68">
-        <f t="shared" si="1"/>
-        <v>123.20000000000003</v>
-      </c>
-      <c r="P5" s="84">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="Q5" s="82"/>
-    </row>
-    <row r="6" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62">
-        <v>6</v>
-      </c>
-      <c r="C6" s="63">
-        <v>127034</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="65">
-        <v>44606</v>
-      </c>
-      <c r="F6" s="66">
-        <v>10</v>
-      </c>
-      <c r="G6" s="67">
-        <v>110.69</v>
-      </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O6" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="84">
-        <f t="shared" si="2"/>
-        <v>-44606</v>
-      </c>
-      <c r="Q6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="17">
-        <f>SUM(H3:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="26">
-        <f>SUM(M3:M12)</f>
-        <v>0.4</v>
-      </c>
-      <c r="N13" s="44" t="e">
-        <f>(O13)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="46">
-        <f>SUM(O3:O12)</f>
-        <v>183.5</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C16" s="31"/>
-    </row>
-    <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C27" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:M1"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N13 N3:O4 O5:O7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I10" xr:uid="{300A2D70-BCD0-40E1-983F-866A4D05695D}">
-      <formula1>"清,买,中"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{13CFC3F6-648E-41A3-8DC7-15CD8EBA3F80}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{F2BB8519-51ED-481A-A121-A6A37192EFB5}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{AD026F30-85D8-49F1-949E-5A710E6508BA}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{584A935A-52C5-4D6B-AB1F-72CF0318A1B8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3645,44 +3729,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102"/>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3717,11 +3801,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="101"/>
+      <c r="S2" s="117"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -3798,23 +3882,29 @@
       <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="54">
+        <v>45050</v>
+      </c>
+      <c r="K4" s="6">
+        <v>116.83499999999999</v>
+      </c>
+      <c r="L4" s="6">
+        <v>10</v>
+      </c>
       <c r="M4" s="52">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="55">
         <f t="shared" ref="N4:N8" si="0">(K4-G4)/G4</f>
-        <v>-1</v>
+        <v>2.7753342716396786E-2</v>
       </c>
       <c r="O4" s="52">
         <f t="shared" ref="O4:O5" si="1">((K4-G4)*L4)-M4</f>
-        <v>-0.2</v>
+        <v>31.049999999999869</v>
       </c>
       <c r="P4" s="56">
         <f t="shared" ref="P4:P8" si="2">J4-E4</f>
-        <v>-44571</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="58"/>
@@ -4063,7 +4153,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="26">
         <f>SUM(M3:M9)</f>
-        <v>1.2</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="N10" s="44" t="e">
         <f>(O10)/#REF!</f>
@@ -4071,7 +4161,7 @@
       </c>
       <c r="O10" s="46">
         <f>SUM(O3:O8)</f>
-        <v>147.75999999999988</v>
+        <v>179.00999999999974</v>
       </c>
       <c r="P10" s="47"/>
       <c r="Q10" s="10"/>
@@ -4113,7 +4203,7 @@
     <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N9:N10 N3:O8">
+  <conditionalFormatting sqref="N3:O8 N9:N10">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/2023/CB-D-week-loop.xlsx
+++ b/2023/CB-D-week-loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B864FF-2E68-486C-8B38-BE5FD008C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47A569-78B3-4E89-AC35-B0276409523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="2160" windowWidth="21600" windowHeight="11580" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>总计</t>
   </si>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>永22转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利元转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙大转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,6 +1058,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2709,7 +2720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2843,11 +2854,11 @@
         <v>0.2</v>
       </c>
       <c r="N3" s="69">
-        <f t="shared" ref="N3:N7" si="0">(K3-G3)/G3</f>
+        <f t="shared" ref="N3:N11" si="0">(K3-G3)/G3</f>
         <v>3.8458184355106176E-3</v>
       </c>
       <c r="O3" s="68">
-        <f t="shared" ref="O3:O7" si="1">((K3-G3)*L3)-M3</f>
+        <f t="shared" ref="O3:O11" si="1">((K3-G3)*L3)-M3</f>
         <v>4.2100000000000248</v>
       </c>
       <c r="P3" s="83">
@@ -2901,7 +2912,7 @@
         <v>60.299999999999969</v>
       </c>
       <c r="P4" s="83">
-        <f t="shared" ref="P4:P9" si="2">J4-E4</f>
+        <f t="shared" ref="P4:P11" si="2">J4-E4</f>
         <v>14</v>
       </c>
       <c r="Q4" s="70"/>
@@ -2980,21 +2991,29 @@
       <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="54">
+        <v>45161</v>
+      </c>
+      <c r="K6" s="6">
+        <v>112.913</v>
+      </c>
+      <c r="L6" s="6">
+        <v>10</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0.2</v>
+      </c>
       <c r="N6" s="55">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2.0083115005872246E-2</v>
       </c>
       <c r="O6" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.02999999999999</v>
       </c>
       <c r="P6" s="99">
         <f t="shared" si="2"/>
-        <v>-44606</v>
+        <v>555</v>
       </c>
       <c r="Q6" s="7"/>
     </row>
@@ -3068,8 +3087,14 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="N8" s="55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O8" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P8" s="83">
         <f t="shared" si="2"/>
         <v>-45057</v>
@@ -3104,8 +3129,14 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="N9" s="55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="83">
         <f t="shared" si="2"/>
         <v>-45097</v>
@@ -3117,11 +3148,21 @@
       <c r="B10" s="62">
         <v>8</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="34">
+        <v>118026</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="50">
+        <v>45114</v>
+      </c>
+      <c r="F10" s="16">
+        <v>10</v>
+      </c>
+      <c r="G10" s="22">
+        <v>104.05</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="66" t="s">
         <v>21</v>
@@ -3130,27 +3171,57 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
+      <c r="N10" s="55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O10" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="83">
+        <f t="shared" si="2"/>
+        <v>-45114</v>
+      </c>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="16">
+        <v>128119</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="118">
+        <v>45162</v>
+      </c>
+      <c r="F11" s="16">
+        <v>10</v>
+      </c>
+      <c r="G11" s="22">
+        <v>111.709</v>
+      </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
+      <c r="N11" s="44">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="45">
+        <f t="shared" si="2"/>
+        <v>-45162</v>
+      </c>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3188,7 +3259,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="26">
         <f>SUM(M3:M12)</f>
-        <v>0.60000000000000009</v>
+        <v>0.8</v>
       </c>
       <c r="N13" s="44" t="e">
         <f>(O13)/#REF!</f>
@@ -3196,7 +3267,7 @@
       </c>
       <c r="O13" s="46">
         <f>SUM(O3:O12)</f>
-        <v>187.71000000000004</v>
+        <v>209.74000000000004</v>
       </c>
       <c r="P13" s="47"/>
       <c r="Q13" s="10"/>
@@ -3218,7 +3289,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O4 O5:O7 N5:N13">
+  <conditionalFormatting sqref="N3:O4 O5:O10 N5:N13">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/2023/CB-D-week-loop.xlsx
+++ b/2023/CB-D-week-loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47A569-78B3-4E89-AC35-B0276409523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A409ED-33D7-44AB-AB88-14C67AF0AB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>总计</t>
   </si>
@@ -199,6 +199,14 @@
   </si>
   <si>
     <t>龙大转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长集转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏利转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -995,6 +1003,9 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1058,9 +1069,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,6 +1120,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2262,7 +2338,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2716,11 +2792,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931A806-A1A8-411D-B836-CCA3F8001F21}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2746,41 +2822,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104"/>
-      <c r="B1" s="106" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="103" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2815,7 +2891,7 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
@@ -2854,11 +2930,11 @@
         <v>0.2</v>
       </c>
       <c r="N3" s="69">
-        <f t="shared" ref="N3:N11" si="0">(K3-G3)/G3</f>
+        <f t="shared" ref="N3:N13" si="0">(K3-G3)/G3</f>
         <v>3.8458184355106176E-3</v>
       </c>
       <c r="O3" s="68">
-        <f t="shared" ref="O3:O11" si="1">((K3-G3)*L3)-M3</f>
+        <f t="shared" ref="O3:O13" si="1">((K3-G3)*L3)-M3</f>
         <v>4.2100000000000248</v>
       </c>
       <c r="P3" s="83">
@@ -2912,7 +2988,7 @@
         <v>60.299999999999969</v>
       </c>
       <c r="P4" s="83">
-        <f t="shared" ref="P4:P11" si="2">J4-E4</f>
+        <f t="shared" ref="P4:P13" si="2">J4-E4</f>
         <v>14</v>
       </c>
       <c r="Q4" s="70"/>
@@ -3061,7 +3137,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="62">
+      <c r="B8" s="41">
         <v>6</v>
       </c>
       <c r="C8" s="37">
@@ -3103,7 +3179,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="62">
+      <c r="B9" s="41">
         <v>7</v>
       </c>
       <c r="C9" s="37">
@@ -3145,7 +3221,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="62">
+      <c r="B10" s="41">
         <v>8</v>
       </c>
       <c r="C10" s="34">
@@ -3167,33 +3243,43 @@
       <c r="I10" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="J10" s="96">
+        <v>45246</v>
+      </c>
+      <c r="K10" s="12">
+        <v>107.376</v>
+      </c>
+      <c r="L10" s="12">
+        <v>10</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.4</v>
+      </c>
       <c r="N10" s="55">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3.1965401249399401E-2</v>
       </c>
       <c r="O10" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.860000000000078</v>
       </c>
       <c r="P10" s="83">
         <f t="shared" si="2"/>
-        <v>-45114</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
+      <c r="B11" s="41">
+        <v>9</v>
+      </c>
       <c r="C11" s="16">
         <v>128119</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="102">
         <v>45162</v>
       </c>
       <c r="F11" s="16">
@@ -3225,58 +3311,120 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="16">
+        <v>113640</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="102">
+        <v>45246</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="22">
+        <v>109.30200000000001</v>
+      </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
+      <c r="N12" s="44">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O12" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="45">
+        <f t="shared" si="2"/>
+        <v>-45246</v>
+      </c>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="41">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34">
+        <v>128105</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="50">
+        <v>45246</v>
+      </c>
+      <c r="F13" s="16">
+        <v>10</v>
+      </c>
+      <c r="G13" s="22">
+        <v>107.661</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="44">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="45">
+        <f t="shared" si="2"/>
+        <v>-45246</v>
+      </c>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="17">
         <f>SUM(H3:H6)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="26">
-        <f>SUM(M3:M12)</f>
-        <v>0.8</v>
-      </c>
-      <c r="N13" s="44" t="e">
-        <f>(O13)/#REF!</f>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="26">
+        <f>SUM(M3:M13)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="N14" s="44" t="e">
+        <f>(O14)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O13" s="46">
-        <f>SUM(O3:O12)</f>
-        <v>209.74000000000004</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C16" s="31"/>
-    </row>
-    <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C27" s="31"/>
+      <c r="O14" s="46">
+        <f>SUM(O3:O13)</f>
+        <v>242.60000000000011</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="28" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3289,7 +3437,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O4 O5:O10 N5:N13">
+  <conditionalFormatting sqref="N3:O4 O5:O10 N5:N14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3346,44 +3494,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104"/>
-      <c r="B1" s="106" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="S1" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3418,11 +3566,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="104"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="118"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -3800,44 +3948,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104"/>
-      <c r="B1" s="106" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="S1" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3872,11 +4020,11 @@
       <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="104"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="118"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
